--- a/inst/extdata/ex02/User_20092019.xlsx
+++ b/inst/extdata/ex02/User_20092019.xlsx
@@ -5,11 +5,11 @@
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\DATA\endoc_beta\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Profils\mcanouil\Downloads\DATA\endoc_beta\ex02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11400" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Blank" sheetId="3" r:id="rId1"/>
@@ -52,12 +52,6 @@
     <t>BLANK</t>
   </si>
   <si>
-    <t>SN1</t>
-  </si>
-  <si>
-    <t>SN2</t>
-  </si>
-  <si>
     <t>Sample</t>
   </si>
   <si>
@@ -92,9 +86,6 @@
   </si>
   <si>
     <t>Concentration (µg/L)</t>
-  </si>
-  <si>
-    <t>LYSAT</t>
   </si>
   <si>
     <t>Target</t>
@@ -140,6 +131,15 @@
   </si>
   <si>
     <t>0.5 mM Glc + A</t>
+  </si>
+  <si>
+    <t>LYSATE</t>
+  </si>
+  <si>
+    <t>SUPERNATANT1</t>
+  </si>
+  <si>
+    <t>SUPERNATANT2</t>
   </si>
 </sst>
 </file>
@@ -3610,13 +3610,13 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>11</v>
       </c>
       <c r="F1" s="3" t="s">
         <v>1</v>
@@ -3625,19 +3625,19 @@
         <v>0</v>
       </c>
       <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="M1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>12</v>
-      </c>
       <c r="N1" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -3645,10 +3645,10 @@
         <v>43728</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
@@ -3879,7 +3879,7 @@
   <dimension ref="A1:O19"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H19"/>
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3905,22 +3905,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -3929,19 +3929,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -3962,16 +3962,16 @@
         <v>CT</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>1.8926670000000001</v>
@@ -4014,16 +4014,16 @@
         <v>CT</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>1.837726</v>
@@ -4066,16 +4066,16 @@
         <v>CT</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>1.769415</v>
@@ -4118,16 +4118,16 @@
         <v>CT</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1">
         <v>1.827615</v>
@@ -4170,16 +4170,16 @@
         <v>CT</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
         <v>1.8143419999999999</v>
@@ -4222,16 +4222,16 @@
         <v>CT</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
         <v>1.8389169999999999</v>
@@ -4274,16 +4274,16 @@
         <v>CT</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>0.3184883</v>
@@ -4328,16 +4328,16 @@
         <v>CT</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>0.29008440000000002</v>
@@ -4382,16 +4382,16 @@
         <v>CT</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0.3146042</v>
@@ -4436,16 +4436,16 @@
         <v>CT</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>0.46287410000000001</v>
@@ -4490,16 +4490,16 @@
         <v>CT</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <v>0.43419999999999997</v>
@@ -4544,16 +4544,16 @@
         <v>CT</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>0.47332639999999998</v>
@@ -4598,16 +4598,16 @@
         <v>CT</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>0.80543039999999999</v>
@@ -4652,16 +4652,16 @@
         <v>CT</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>0.80959119999999996</v>
@@ -4706,16 +4706,16 @@
         <v>CT</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>0.71226020000000001</v>
@@ -4760,16 +4760,16 @@
         <v>CT</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1">
         <v>1.2927729999999999</v>
@@ -4814,16 +4814,16 @@
         <v>CT</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1">
         <v>1.2832300000000001</v>
@@ -4868,16 +4868,16 @@
         <v>CT</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1">
         <v>1.1152059999999999</v>
@@ -4915,8 +4915,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4942,22 +4942,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -4966,19 +4966,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -4999,16 +4999,16 @@
         <v>Empty</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>1.6682030000000001</v>
@@ -5051,17 +5051,17 @@
         <v>Empty</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="str">
         <f>$F$2</f>
         <v>Control</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>1.7174659999999999</v>
@@ -5104,17 +5104,17 @@
         <v>Empty</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" ref="F4:F19" si="2">$F$2</f>
         <v>Control</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>1.588794</v>
@@ -5157,17 +5157,17 @@
         <v>Empty</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1">
         <v>1.6136189999999999</v>
@@ -5210,17 +5210,17 @@
         <v>Empty</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
         <v>1.698296</v>
@@ -5263,17 +5263,17 @@
         <v>Empty</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
         <v>1.482953</v>
@@ -5316,17 +5316,17 @@
         <v>Empty</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F8" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>0.30497770000000002</v>
@@ -5371,17 +5371,17 @@
         <v>Empty</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F9" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>0.27266790000000002</v>
@@ -5426,17 +5426,17 @@
         <v>Empty</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F10" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0.2997051</v>
@@ -5481,17 +5481,17 @@
         <v>Empty</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F11" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>0.39875919999999998</v>
@@ -5536,17 +5536,17 @@
         <v>Empty</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F12" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <v>0.48122700000000002</v>
@@ -5591,17 +5591,17 @@
         <v>Empty</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F13" s="4" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>0.47143180000000001</v>
@@ -5646,17 +5646,17 @@
         <v>Empty</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>0.87283940000000004</v>
@@ -5701,17 +5701,17 @@
         <v>Empty</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>0.6920328</v>
@@ -5756,17 +5756,17 @@
         <v>Empty</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>0.68735489999999999</v>
@@ -5811,17 +5811,17 @@
         <v>Empty</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1">
         <v>1.3981669999999999</v>
@@ -5866,17 +5866,17 @@
         <v>Empty</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1">
         <v>1.371205</v>
@@ -5921,17 +5921,17 @@
         <v>Empty</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="2"/>
         <v>Control</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1">
         <v>1.3740159999999999</v>
@@ -5969,8 +5969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O19"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:H19"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5996,22 +5996,22 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>20</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="I1" s="3" t="s">
         <v>1</v>
@@ -6020,19 +6020,19 @@
         <v>0</v>
       </c>
       <c r="K1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="O1" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N1" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -6053,16 +6053,16 @@
         <v>GENE</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I2" s="1">
         <v>2.0876049999999999</v>
@@ -6105,16 +6105,16 @@
         <v>GENE</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I3" s="1">
         <v>2.1013259999999998</v>
@@ -6157,16 +6157,16 @@
         <v>GENE</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1">
         <v>2.068495</v>
@@ -6209,16 +6209,16 @@
         <v>GENE</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I5" s="1">
         <v>2.0407709999999999</v>
@@ -6261,16 +6261,16 @@
         <v>GENE</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I6" s="1">
         <v>2.0856919999999999</v>
@@ -6313,16 +6313,16 @@
         <v>GENE</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I7" s="1">
         <v>1.936458</v>
@@ -6365,16 +6365,16 @@
         <v>GENE</v>
       </c>
       <c r="E8" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I8">
         <v>0.34010469999999998</v>
@@ -6419,16 +6419,16 @@
         <v>GENE</v>
       </c>
       <c r="E9" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I9">
         <v>0.34182200000000001</v>
@@ -6473,16 +6473,16 @@
         <v>GENE</v>
       </c>
       <c r="E10" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F10" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I10">
         <v>0.35379139999999998</v>
@@ -6527,16 +6527,16 @@
         <v>GENE</v>
       </c>
       <c r="E11" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H11" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I11">
         <v>0.69807169999999996</v>
@@ -6581,16 +6581,16 @@
         <v>GENE</v>
       </c>
       <c r="E12" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I12">
         <v>0.84351379999999998</v>
@@ -6635,16 +6635,16 @@
         <v>GENE</v>
       </c>
       <c r="E13" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F13" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G13" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="H13" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I13">
         <v>0.6067688</v>
@@ -6689,16 +6689,16 @@
         <v>GENE</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I14" s="1">
         <v>0.87743709999999997</v>
@@ -6743,16 +6743,16 @@
         <v>GENE</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I15" s="1">
         <v>0.92095320000000003</v>
@@ -6797,16 +6797,16 @@
         <v>GENE</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="I16" s="1">
         <v>0.89602599999999999</v>
@@ -6851,16 +6851,16 @@
         <v>GENE</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1">
         <v>1.589769</v>
@@ -6905,16 +6905,16 @@
         <v>GENE</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I18" s="1">
         <v>1.5555680000000001</v>
@@ -6959,16 +6959,16 @@
         <v>GENE</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="I19" s="1">
         <v>1.5240959999999999</v>
